--- a/src/main/java/framework/suite/regression/OSPOS_Automation_Test_Case.xlsx
+++ b/src/main/java/framework/suite/regression/OSPOS_Automation_Test_Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazmul.islam/Desktop/Personal/HyperTech/ht-selenium-framework/src/main/java/selenium_framework/test_cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazmul.islam/Desktop/Personal/HyperTech/ht-selenium-framework/src/main/java/framework/suite/regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA52F6CB-DF04-904A-86CF-B8B2AFB93481}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02362C20-5698-7246-88CB-B0A438FBB76A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>TSID</t>
   </si>
@@ -67,15 +67,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Open a Browser</t>
-  </si>
-  <si>
-    <t>OpenBrowser</t>
-  </si>
-  <si>
-    <t>chrome</t>
   </si>
   <si>
     <t>Navigate to the url</t>
@@ -135,12 +126,6 @@
     <t>Welcome to OSPOS</t>
   </si>
   <si>
-    <t>Close Browser</t>
-  </si>
-  <si>
-    <t>CloseBrowser</t>
-  </si>
-  <si>
     <t>Click on customer</t>
   </si>
   <si>
@@ -166,12 +151,6 @@
   </si>
   <si>
     <t>submit</t>
-  </si>
-  <si>
-    <t>openBrowser</t>
-  </si>
-  <si>
-    <t>username1</t>
   </si>
 </sst>
 </file>
@@ -491,7 +470,7 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -593,10 +572,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:Z102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G4:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -654,88 +633,98 @@
       <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -757,7 +746,9 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
@@ -765,12 +756,14 @@
         <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -793,51 +786,37 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -863,32 +842,32 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
@@ -1898,7 +1877,7 @@
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -1926,7 +1905,7 @@
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3494,65 +3473,9 @@
       <c r="Y102" s="9"/>
       <c r="Z102" s="9"/>
     </row>
-    <row r="103" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="3"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="9"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="9"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
-      <c r="U103" s="9"/>
-      <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
-      <c r="X103" s="9"/>
-      <c r="Y103" s="9"/>
-      <c r="Z103" s="9"/>
-    </row>
-    <row r="104" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="3"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="9"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="9"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="9"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
-      <c r="X104" s="9"/>
-      <c r="Y104" s="9"/>
-      <c r="Z104" s="9"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3563,10 +3486,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3624,43 +3547,23 @@
       <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3669,51 +3572,73 @@
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -3736,7 +3661,7 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -3746,12 +3671,14 @@
         <v>30</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -3774,24 +3701,22 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -3814,20 +3739,18 @@
       <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -3852,20 +3775,22 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -3888,21 +3813,21 @@
       <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -3926,22 +3851,20 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -3964,19 +3887,11 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -4000,38 +3915,32 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
@@ -4929,7 +4838,7 @@
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -4957,7 +4866,7 @@
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -6469,65 +6378,9 @@
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
     </row>
-    <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="3"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="9"/>
-      <c r="O101" s="9"/>
-      <c r="P101" s="9"/>
-      <c r="Q101" s="9"/>
-      <c r="R101" s="9"/>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
-      <c r="U101" s="9"/>
-      <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
-      <c r="X101" s="9"/>
-      <c r="Y101" s="9"/>
-      <c r="Z101" s="9"/>
-    </row>
-    <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="3"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="9"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9"/>
-      <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
-      <c r="X102" s="9"/>
-      <c r="Y102" s="9"/>
-      <c r="Z102" s="9"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
